--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BD/10/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BD/10/seed3/result_data_RandomForest.xlsx
@@ -494,7 +494,7 @@
         <v>-13.95</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.571399999999998</v>
+        <v>-7.6945</v>
       </c>
     </row>
     <row r="5">
@@ -572,7 +572,7 @@
         <v>-22.54</v>
       </c>
       <c r="B10" t="n">
-        <v>5.688799999999997</v>
+        <v>5.6295</v>
       </c>
       <c r="C10" t="n">
         <v>-12.45</v>
@@ -600,13 +600,13 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>5.132699999999997</v>
+        <v>5.291799999999999</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-5.918799999999999</v>
+        <v>-5.761099999999998</v>
       </c>
     </row>
     <row r="13">
@@ -676,7 +676,7 @@
         <v>-14.84</v>
       </c>
       <c r="D17" t="n">
-        <v>-8.377499999999992</v>
+        <v>-8.365899999999993</v>
       </c>
     </row>
     <row r="18">
@@ -684,7 +684,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>6.739399999999998</v>
+        <v>6.928799999999993</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -802,7 +802,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.31980000000001</v>
+        <v>-7.215400000000008</v>
       </c>
     </row>
     <row r="27">
@@ -816,7 +816,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.199700000000002</v>
+        <v>-8.101699999999999</v>
       </c>
     </row>
     <row r="28">
@@ -830,7 +830,7 @@
         <v>-11.8</v>
       </c>
       <c r="D28" t="n">
-        <v>-8.1004</v>
+        <v>-8.301299999999998</v>
       </c>
     </row>
     <row r="29">
@@ -950,13 +950,13 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>8.574900000000005</v>
+        <v>8.604400000000005</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-7.936599999999999</v>
+        <v>-8.113400000000002</v>
       </c>
     </row>
     <row r="38">
@@ -1202,7 +1202,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>6.366199999999997</v>
+        <v>6.508999999999995</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1348,7 +1348,7 @@
         <v>-11.86</v>
       </c>
       <c r="D65" t="n">
-        <v>-7.952600000000002</v>
+        <v>-7.944700000000003</v>
       </c>
     </row>
     <row r="66">
@@ -1384,7 +1384,7 @@
         <v>-21.44</v>
       </c>
       <c r="B68" t="n">
-        <v>4.919999999999996</v>
+        <v>4.935099999999998</v>
       </c>
       <c r="C68" t="n">
         <v>-9.98</v>
@@ -1460,7 +1460,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-8.177999999999992</v>
+        <v>-8.399399999999995</v>
       </c>
     </row>
     <row r="74">
@@ -1510,7 +1510,7 @@
         <v>-19.89</v>
       </c>
       <c r="B77" t="n">
-        <v>9.167800000000005</v>
+        <v>9.1511</v>
       </c>
       <c r="C77" t="n">
         <v>-9.57</v>
@@ -1524,7 +1524,7 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>9.520499999999997</v>
+        <v>9.507399999999997</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1614,7 +1614,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.052499999999998</v>
+        <v>-8.019500000000004</v>
       </c>
     </row>
     <row r="85">
@@ -1628,7 +1628,7 @@
         <v>-13.1</v>
       </c>
       <c r="D85" t="n">
-        <v>-8.857299999999995</v>
+        <v>-8.961199999999995</v>
       </c>
     </row>
     <row r="86">
@@ -1740,7 +1740,7 @@
         <v>-10.09</v>
       </c>
       <c r="D93" t="n">
-        <v>-6.866899999999991</v>
+        <v>-6.799899999999993</v>
       </c>
     </row>
     <row r="94">
@@ -1768,7 +1768,7 @@
         <v>-11.3</v>
       </c>
       <c r="D95" t="n">
-        <v>-7.482699999999999</v>
+        <v>-7.431100000000002</v>
       </c>
     </row>
     <row r="96">
@@ -1810,7 +1810,7 @@
         <v>-10.59</v>
       </c>
       <c r="D98" t="n">
-        <v>-7.373500000000003</v>
+        <v>-7.209500000000003</v>
       </c>
     </row>
     <row r="99">
@@ -1824,7 +1824,7 @@
         <v>-13.93</v>
       </c>
       <c r="D99" t="n">
-        <v>-8.089100000000006</v>
+        <v>-7.932000000000004</v>
       </c>
     </row>
     <row r="100">
@@ -1852,7 +1852,7 @@
         <v>-15.77</v>
       </c>
       <c r="D101" t="n">
-        <v>-7.828199999999997</v>
+        <v>-7.810299999999996</v>
       </c>
     </row>
     <row r="102">
